--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
@@ -537,22 +537,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1450125</v>
+        <v>0.4261585</v>
       </c>
       <c r="H2">
-        <v>0.290025</v>
+        <v>0.852317</v>
       </c>
       <c r="I2">
-        <v>0.1377669677855758</v>
+        <v>0.423634836672138</v>
       </c>
       <c r="J2">
-        <v>0.1102813262277721</v>
+        <v>0.370017742958494</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.028072</v>
       </c>
       <c r="O2">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P2">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q2">
-        <v>0.0013569303</v>
+        <v>0.003987707137333333</v>
       </c>
       <c r="R2">
-        <v>0.0081415818</v>
+        <v>0.023926242824</v>
       </c>
       <c r="S2">
-        <v>0.01499280604643025</v>
+        <v>0.01656153770692423</v>
       </c>
       <c r="T2">
-        <v>0.01707340114858496</v>
+        <v>0.02128215347109592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.4261585</v>
+      </c>
+      <c r="H3">
+        <v>0.852317</v>
+      </c>
+      <c r="I3">
+        <v>0.423634836672138</v>
+      </c>
+      <c r="J3">
+        <v>0.370017742958494</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.1450125</v>
-      </c>
-      <c r="H3">
-        <v>0.290025</v>
-      </c>
-      <c r="I3">
-        <v>0.1377669677855758</v>
-      </c>
-      <c r="J3">
-        <v>0.1102813262277721</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N3">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O3">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P3">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q3">
-        <v>0.011111727825</v>
+        <v>0.098015602683</v>
       </c>
       <c r="R3">
-        <v>0.0444469113</v>
+        <v>0.392062410732</v>
       </c>
       <c r="S3">
-        <v>0.1227741617391455</v>
+        <v>0.4070732989652138</v>
       </c>
       <c r="T3">
-        <v>0.09320792507918717</v>
+        <v>0.3487355894873981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.144697</v>
       </c>
       <c r="I4">
-        <v>0.04582241056844401</v>
+        <v>0.04794670680974985</v>
       </c>
       <c r="J4">
-        <v>0.05502069497863958</v>
+        <v>0.06281754013221043</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.028072</v>
       </c>
       <c r="O4">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P4">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q4">
         <v>0.0004513260204444444</v>
@@ -703,10 +703,10 @@
         <v>0.004061934184</v>
       </c>
       <c r="S4">
-        <v>0.004986728860156466</v>
+        <v>0.001874423734814485</v>
       </c>
       <c r="T4">
-        <v>0.008518127492446508</v>
+        <v>0.003613049793453804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>0.144697</v>
       </c>
       <c r="I5">
-        <v>0.04582241056844401</v>
+        <v>0.04794670680974985</v>
       </c>
       <c r="J5">
-        <v>0.05502069497863958</v>
+        <v>0.06281754013221043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N5">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O5">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P5">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q5">
-        <v>0.003695850774</v>
+        <v>0.011093340202</v>
       </c>
       <c r="R5">
-        <v>0.022175104644</v>
+        <v>0.066560041212</v>
       </c>
       <c r="S5">
-        <v>0.04083568170828755</v>
+        <v>0.04607228307493537</v>
       </c>
       <c r="T5">
-        <v>0.04650256748619307</v>
+        <v>0.05920449033875663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1357486666666667</v>
+        <v>0.008916666666666666</v>
       </c>
       <c r="H6">
-        <v>0.407246</v>
+        <v>0.02675</v>
       </c>
       <c r="I6">
-        <v>0.1289660007764954</v>
+        <v>0.008863863156532675</v>
       </c>
       <c r="J6">
-        <v>0.1548543366294468</v>
+        <v>0.01161302030129601</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.028072</v>
       </c>
       <c r="O6">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P6">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q6">
-        <v>0.001270245523555556</v>
+        <v>8.343622222222222E-05</v>
       </c>
       <c r="R6">
-        <v>0.011432209712</v>
+        <v>0.000750926</v>
       </c>
       <c r="S6">
-        <v>0.01403502063887489</v>
+        <v>0.0003465229749496359</v>
       </c>
       <c r="T6">
-        <v>0.02397405163057196</v>
+        <v>0.0006679411596293584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.008916666666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.02675</v>
+      </c>
+      <c r="I7">
+        <v>0.008863863156532675</v>
+      </c>
+      <c r="J7">
+        <v>0.01161302030129601</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.1357486666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.407246</v>
-      </c>
-      <c r="I7">
-        <v>0.1289660007764954</v>
-      </c>
-      <c r="J7">
-        <v>0.1548543366294468</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N7">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O7">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P7">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q7">
-        <v>0.010401877332</v>
+        <v>0.0020508155</v>
       </c>
       <c r="R7">
-        <v>0.062411263992</v>
+        <v>0.012304893</v>
       </c>
       <c r="S7">
-        <v>0.1149309801376205</v>
+        <v>0.00851734018158304</v>
       </c>
       <c r="T7">
-        <v>0.1308802849988748</v>
+        <v>0.01094507914166665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3829005</v>
+        <v>0.288264</v>
       </c>
       <c r="H8">
-        <v>0.7658010000000001</v>
+        <v>0.576528</v>
       </c>
       <c r="I8">
-        <v>0.3637689223244953</v>
+        <v>0.2865569325930544</v>
       </c>
       <c r="J8">
-        <v>0.2911940346747837</v>
+        <v>0.2502890231127323</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.028072</v>
       </c>
       <c r="O8">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P8">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q8">
-        <v>0.003582927612000001</v>
+        <v>0.002697382336</v>
       </c>
       <c r="R8">
-        <v>0.021497565672</v>
+        <v>0.016184294016</v>
       </c>
       <c r="S8">
-        <v>0.03958798677066576</v>
+        <v>0.01120262790851011</v>
       </c>
       <c r="T8">
-        <v>0.04508172630975783</v>
+        <v>0.01439576750948765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3829005</v>
+        <v>0.288264</v>
       </c>
       <c r="H9">
-        <v>0.7658010000000001</v>
+        <v>0.576528</v>
       </c>
       <c r="I9">
-        <v>0.3637689223244953</v>
+        <v>0.2865569325930544</v>
       </c>
       <c r="J9">
-        <v>0.2911940346747837</v>
+        <v>0.2502890231127323</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N9">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O9">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P9">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q9">
-        <v>0.029340133713</v>
+        <v>0.066300143472</v>
       </c>
       <c r="R9">
-        <v>0.117360534852</v>
+        <v>0.265200573888</v>
       </c>
       <c r="S9">
-        <v>0.3241809355538295</v>
+        <v>0.2753543046845443</v>
       </c>
       <c r="T9">
-        <v>0.2461123083650259</v>
+        <v>0.2358932556032446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2295073333333334</v>
+        <v>0.1072756666666667</v>
       </c>
       <c r="H10">
-        <v>0.6885220000000001</v>
+        <v>0.321827</v>
       </c>
       <c r="I10">
-        <v>0.2180400268796603</v>
+        <v>0.1066403920776614</v>
       </c>
       <c r="J10">
-        <v>0.2618088761210177</v>
+        <v>0.1397152704487922</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.028072</v>
       </c>
       <c r="O10">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P10">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q10">
-        <v>0.002147576620444445</v>
+        <v>0.001003814171555556</v>
       </c>
       <c r="R10">
-        <v>0.019328189584</v>
+        <v>0.009034327544</v>
       </c>
       <c r="S10">
-        <v>0.02372870569709566</v>
+        <v>0.004168988764826784</v>
       </c>
       <c r="T10">
-        <v>0.04053241032885447</v>
+        <v>0.008035943909534111</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2295073333333334</v>
+        <v>0.1072756666666667</v>
       </c>
       <c r="H11">
-        <v>0.6885220000000001</v>
+        <v>0.321827</v>
       </c>
       <c r="I11">
-        <v>0.2180400268796603</v>
+        <v>0.1066403920776614</v>
       </c>
       <c r="J11">
-        <v>0.2618088761210177</v>
+        <v>0.1397152704487922</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N11">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O11">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P11">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q11">
-        <v>0.017586228924</v>
+        <v>0.024673188782</v>
       </c>
       <c r="R11">
-        <v>0.105517373544</v>
+        <v>0.148039132692</v>
       </c>
       <c r="S11">
-        <v>0.1943113211825647</v>
+        <v>0.1024714033128346</v>
       </c>
       <c r="T11">
-        <v>0.2212764657921632</v>
+        <v>0.1316793265392581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1111913333333333</v>
+        <v>0.12711</v>
       </c>
       <c r="H12">
-        <v>0.333574</v>
+        <v>0.38133</v>
       </c>
       <c r="I12">
-        <v>0.1056356716653292</v>
+        <v>0.1263572686908637</v>
       </c>
       <c r="J12">
-        <v>0.1268407313683402</v>
+        <v>0.1655474030464751</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.028072</v>
       </c>
       <c r="O12">
-        <v>0.1088272921108742</v>
+        <v>0.03909389944656898</v>
       </c>
       <c r="P12">
-        <v>0.1548167920407668</v>
+        <v>0.0575165755591434</v>
       </c>
       <c r="Q12">
-        <v>0.001040454369777778</v>
+        <v>0.00118941064</v>
       </c>
       <c r="R12">
-        <v>0.009364089328000001</v>
+        <v>0.01070469576</v>
       </c>
       <c r="S12">
-        <v>0.01149604409765118</v>
+        <v>0.004939798356543726</v>
       </c>
       <c r="T12">
-        <v>0.01963707513055109</v>
+        <v>0.00952171971594255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1111913333333333</v>
+        <v>0.12711</v>
       </c>
       <c r="H13">
-        <v>0.333574</v>
+        <v>0.38133</v>
       </c>
       <c r="I13">
-        <v>0.1056356716653292</v>
+        <v>0.1263572686908637</v>
       </c>
       <c r="J13">
-        <v>0.1268407313683402</v>
+        <v>0.1655474030464751</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.076626</v>
+        <v>0.229998</v>
       </c>
       <c r="N13">
-        <v>0.153252</v>
+        <v>0.459996</v>
       </c>
       <c r="O13">
-        <v>0.8911727078891258</v>
+        <v>0.9609061005534311</v>
       </c>
       <c r="P13">
-        <v>0.8451832079592332</v>
+        <v>0.9424834244408566</v>
       </c>
       <c r="Q13">
-        <v>0.008520147107999998</v>
+        <v>0.02923504578</v>
       </c>
       <c r="R13">
-        <v>0.051120882648</v>
+        <v>0.17541027468</v>
       </c>
       <c r="S13">
-        <v>0.09413962756767803</v>
+        <v>0.12141747033432</v>
       </c>
       <c r="T13">
-        <v>0.1072036562377891</v>
+        <v>0.1560256833305325</v>
       </c>
     </row>
   </sheetData>
